--- a/xlsx/政治地理学_intext.xlsx
+++ b/xlsx/政治地理学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>政治地理学</t>
   </si>
@@ -29,7 +29,7 @@
     <t>人类社会</t>
   </si>
   <si>
-    <t>政策_政策_政治學_政治地理学</t>
+    <t>政策_政策_政治学_政治地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E6%B3%95%E7%9A%84%E7%B2%BE%E7%A5%9E</t>
   </si>
   <si>
-    <t>論法的精神</t>
+    <t>论法的精神</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E5%80%99</t>
@@ -191,9 +191,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文地理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%9C%B0%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
@@ -203,13 +200,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展地理學</t>
+    <t>发展地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境地理學</t>
+    <t>环境地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言地理學</t>
+    <t>语言地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -245,25 +242,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教地理學</t>
+    <t>宗教地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會地理學</t>
+    <t>社会地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%95%A5%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>戰略地理學</t>
+    <t>战略地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>時間地理學</t>
+    <t>时间地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -275,85 +272,85 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運輸地理學</t>
+    <t>运输地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>都市地理學</t>
+    <t>都市地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為地理學</t>
+    <t>行为地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判地理學</t>
+    <t>批判地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現代主義</t>
+    <t>现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構主義</t>
+    <t>结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E8%99%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>符號學</t>
+    <t>符号学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後現代主義</t>
+    <t>后现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後結構主義</t>
+    <t>后结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%A7%8B</t>
   </si>
   <si>
-    <t>解構</t>
+    <t>解构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>地理學歷史</t>
+    <t>地理学历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>音樂地理學</t>
+    <t>音乐地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟地理學</t>
+    <t>经济地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -377,31 +374,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學地理學</t>
+    <t>医学地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E8%90%BD%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>聚落地理學</t>
+    <t>聚落地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E9%81%8B%E8%BC%B8%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通運輸地理學</t>
+    <t>交通运输地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然地理學</t>
+    <t>自然地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%BD%A2%E5%AD%B8</t>
   </si>
   <si>
-    <t>地形學</t>
+    <t>地形学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E5%AD%A6</t>
@@ -413,19 +410,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99%E5%AD%B8</t>
   </si>
   <si>
-    <t>氣候學</t>
+    <t>气候学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>水文學</t>
+    <t>水文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>土壤學</t>
+    <t>土壤学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物地理學</t>
+    <t>生物地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -455,19 +452,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>景觀生態學</t>
+    <t>景观生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B2%BC%E5%AD%B8</t>
   </si>
   <si>
-    <t>湖沼學</t>
+    <t>湖沼学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>海洋學</t>
+    <t>海洋学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E8%B3%87%E8%A8%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>地理資訊系統</t>
+    <t>地理资讯系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F%E5%AF%BC%E8%88%AA%E7%B3%BB%E7%BB%9F</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%99%E6%B8%AC%E5%AD%B8</t>
   </si>
   <si>
-    <t>遙測學</t>
+    <t>遥测学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%97%B4%E5%88%86%E6%9E%90</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%96%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>空間科學</t>
+    <t>空间科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E6%80%A7%E7%A0%94%E7%A9%B6</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%AA%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>地誌學</t>
+    <t>地志学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BA%E5%9F%9F%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -539,19 +536,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>區域研究</t>
+    <t>区域研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>系統地理學</t>
+    <t>系统地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>美國地理學會</t>
+    <t>美国地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86%E5%AD%A6%E5%AE%B6%E5%8D%8F%E4%BC%9A</t>
@@ -563,43 +560,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>巴黎地理學會</t>
+    <t>巴黎地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>皇家地理學會</t>
+    <t>皇家地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9C%B0%E7%90%86%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>國際地理聯合會</t>
+    <t>国际地理联合会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>國家地理學會</t>
+    <t>国家地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E7%9A%87%E5%AE%B6%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>加拿大皇家地理學會</t>
+    <t>加拿大皇家地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E8%98%87%E6%A0%BC%E8%98%AD%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>皇家蘇格蘭地理學會</t>
+    <t>皇家苏格兰地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>俄羅斯地理學會</t>
+    <t>俄罗斯地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8A%B3%E7%8B%84%E4%B9%8C%E6%96%AF%C2%B7%E6%89%98%E5%8B%92%E5%AF%86</t>
@@ -617,31 +614,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E6%9D%9C%E6%96%AF%C2%B7%E9%BA%A5%E5%8D%A1%E6%89%98</t>
   </si>
   <si>
-    <t>傑拉杜斯·麥卡托</t>
+    <t>杰拉杜斯·麦卡托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E6%9D%8E%E7%89%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>卡爾·李特爾</t>
+    <t>卡尔·李特尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E4%BF%9D%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞歷山大·馮·洪保德</t>
+    <t>亚历山大·冯·洪保德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E7%BE%85%E7%B4%A0%C2%B7%E8%8F%AF%E8%90%8A%E5%A3%AB</t>
   </si>
   <si>
-    <t>阿爾弗雷德·羅素·華萊士</t>
+    <t>阿尔弗雷德·罗素·华莱士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -651,9 +648,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>地理学</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1830,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1862,10 +1856,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1891,10 +1885,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1920,10 +1914,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1949,10 +1943,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1978,10 +1972,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2007,10 +2001,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2036,10 +2030,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2065,10 +2059,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2094,10 +2088,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2123,10 +2117,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2152,10 +2146,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2181,10 +2175,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2210,10 +2204,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2239,10 +2233,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2268,10 +2262,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2297,10 +2291,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2326,10 +2320,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2355,10 +2349,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2384,10 +2378,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2413,10 +2407,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2442,10 +2436,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2471,10 +2465,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2500,10 +2494,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2529,10 +2523,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>78</v>
@@ -2558,10 +2552,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2590,7 +2584,7 @@
         <v>57</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2616,10 +2610,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2645,10 +2639,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2674,10 +2668,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2703,10 +2697,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2732,10 +2726,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2761,10 +2755,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2790,10 +2784,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" t="s">
         <v>83</v>
-      </c>
-      <c r="F62" t="s">
-        <v>84</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2819,10 +2813,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2848,10 +2842,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2877,10 +2871,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2906,10 +2900,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2935,10 +2929,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2964,10 +2958,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2993,10 +2987,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3022,10 +3016,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3051,10 +3045,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3080,10 +3074,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3109,10 +3103,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3138,10 +3132,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3167,10 +3161,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3196,10 +3190,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3225,10 +3219,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3254,10 +3248,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3283,10 +3277,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3312,10 +3306,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3341,10 +3335,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3370,10 +3364,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3399,10 +3393,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3428,10 +3422,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3457,10 +3451,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3486,10 +3480,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3515,10 +3509,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3544,10 +3538,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3573,10 +3567,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3602,10 +3596,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3631,10 +3625,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3660,10 +3654,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3689,10 +3683,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3718,10 +3712,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3747,10 +3741,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3776,10 +3770,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3805,10 +3799,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3834,10 +3828,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3863,10 +3857,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3892,10 +3886,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3921,10 +3915,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3950,10 +3944,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3979,10 +3973,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4008,10 +4002,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4037,10 +4031,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4066,10 +4060,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -4095,10 +4089,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4124,10 +4118,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="G108" t="n">
         <v>14</v>
